--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -425,7 +425,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="239">
   <si>
     <t>项目概况</t>
   </si>
@@ -1273,22 +1273,8 @@
     <t>备注</t>
   </si>
   <si>
-    <t>投资与策划计划在线协同</t>
-  </si>
-  <si>
-    <t>规划与设计计划在线协同</t>
-  </si>
-  <si>
-    <t>生产与供应计划在线协同</t>
-  </si>
-  <si>
-    <t>施工与交付计划在线协同</t>
-  </si>
-  <si>
-    <t>（虚拟）质量样板</t>
-  </si>
-  <si>
-    <t>运营与消纳计划在线协同</t>
+    <t xml:space="preserve">规划与设计
+</t>
   </si>
   <si>
     <t>总计</t>
@@ -1302,12 +1288,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1376,12 +1362,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -1428,8 +1408,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1443,65 +1432,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1522,7 +1457,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1530,7 +1465,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1545,14 +1487,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1569,7 +1542,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1590,7 +1563,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1602,13 +1599,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1626,7 +1641,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1644,31 +1695,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1680,73 +1719,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1758,13 +1731,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2188,6 +2155,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2212,10 +2188,42 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2235,196 +2243,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2573,7 +2540,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2591,9 +2558,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2609,28 +2573,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3012,92 +2973,92 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.8308823529412" style="64" customWidth="1"/>
-    <col min="2" max="2" width="23.0808823529412" style="64" customWidth="1"/>
-    <col min="3" max="3" width="8.66176470588235" style="64" customWidth="1"/>
-    <col min="4" max="4" width="28.0808823529412" style="64" customWidth="1"/>
-    <col min="5" max="5" width="8.66176470588235" style="64"/>
-    <col min="6" max="6" width="28.9117647058824" style="64" customWidth="1"/>
-    <col min="7" max="16384" width="8.66176470588235" style="64"/>
+    <col min="1" max="1" width="11.8308823529412" style="62" customWidth="1"/>
+    <col min="2" max="2" width="23.0808823529412" style="62" customWidth="1"/>
+    <col min="3" max="3" width="8.66911764705882" style="62" customWidth="1"/>
+    <col min="4" max="4" width="28.0808823529412" style="62" customWidth="1"/>
+    <col min="5" max="5" width="8.66911764705882" style="62"/>
+    <col min="6" max="6" width="28.9191176470588" style="62" customWidth="1"/>
+    <col min="7" max="16384" width="8.66911764705882" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="69"/>
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="67"/>
     </row>
     <row r="2" ht="17.6" spans="1:6">
-      <c r="A2" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="A2" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="68"/>
     </row>
     <row r="3" ht="17.6" spans="1:6">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67" t="s">
+      <c r="B3" s="65"/>
+      <c r="C3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="68" t="s">
+      <c r="D3" s="65"/>
+      <c r="E3" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="70"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" ht="17.6" spans="1:6">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68" t="s">
+      <c r="D4" s="65"/>
+      <c r="E4" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="70"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" ht="17.6" spans="1:6">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68" t="s">
+      <c r="B5" s="65"/>
+      <c r="C5" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="68" t="s">
+      <c r="D5" s="65"/>
+      <c r="E5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="70"/>
+      <c r="F5" s="68"/>
     </row>
     <row r="6" ht="17.6" spans="1:6">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="68" t="s">
+      <c r="B6" s="65"/>
+      <c r="C6" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="70"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3113,30 +3074,30 @@
   <sheetPr/>
   <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.4117647058824" defaultRowHeight="18.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="27.4191176470588" defaultRowHeight="18.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.4117647058824" style="23" customWidth="1"/>
+    <col min="1" max="1" width="12.4191176470588" style="23" customWidth="1"/>
     <col min="2" max="2" width="29" style="24" customWidth="1"/>
     <col min="3" max="3" width="13.5808823529412" style="24" customWidth="1"/>
     <col min="4" max="4" width="8.08088235294118" style="24" customWidth="1"/>
     <col min="5" max="5" width="30.5" style="24" customWidth="1"/>
     <col min="6" max="6" width="16.75" style="24" customWidth="1"/>
-    <col min="7" max="7" width="7.16176470588235" style="24" customWidth="1"/>
+    <col min="7" max="7" width="7.16911764705882" style="24" customWidth="1"/>
     <col min="8" max="8" width="8.58088235294118" style="24" customWidth="1"/>
-    <col min="9" max="9" width="46.9117647058824" style="24" customWidth="1"/>
+    <col min="9" max="9" width="46.9191176470588" style="24" customWidth="1"/>
     <col min="10" max="10" width="16.75" style="24" customWidth="1"/>
     <col min="11" max="11" width="8.5" style="24" customWidth="1"/>
-    <col min="12" max="12" width="88.1617647058823" style="24" customWidth="1"/>
+    <col min="12" max="12" width="88.1691176470588" style="24" customWidth="1"/>
     <col min="13" max="13" width="20.8308823529412" style="24" customWidth="1"/>
-    <col min="14" max="16384" width="27.4117647058824" style="24"/>
+    <col min="14" max="16384" width="27.4191176470588" style="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:12">
@@ -3232,7 +3193,7 @@
       <c r="L3" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="57"/>
+      <c r="M3" s="56"/>
       <c r="N3" s="23"/>
     </row>
     <row r="4" ht="91.5" customHeight="1" spans="1:14">
@@ -3260,7 +3221,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="50"/>
-      <c r="M4" s="57"/>
+      <c r="M4" s="56"/>
       <c r="N4" s="23"/>
     </row>
     <row r="5" customHeight="1" spans="1:13">
@@ -4153,7 +4114,7 @@
       <c r="K41" s="38">
         <v>2</v>
       </c>
-      <c r="L41" s="56"/>
+      <c r="L41" s="52"/>
     </row>
     <row r="42" customHeight="1" spans="1:12">
       <c r="A42" s="37"/>
@@ -4176,8 +4137,10 @@
       <c r="J42" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="K42" s="38"/>
-      <c r="L42" s="56"/>
+      <c r="K42" s="38">
+        <v>2</v>
+      </c>
+      <c r="L42" s="52"/>
     </row>
     <row r="43" customHeight="1" spans="1:12">
       <c r="A43" s="37"/>
@@ -4200,7 +4163,9 @@
       <c r="J43" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="K43" s="38"/>
+      <c r="K43" s="38">
+        <v>2</v>
+      </c>
       <c r="L43" s="52"/>
     </row>
     <row r="44" customHeight="1" spans="1:12">
@@ -4224,7 +4189,9 @@
       <c r="J44" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="K44" s="38"/>
+      <c r="K44" s="38">
+        <v>2</v>
+      </c>
       <c r="L44" s="52"/>
     </row>
     <row r="45" customHeight="1" spans="1:12">
@@ -4242,7 +4209,9 @@
       <c r="J45" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="K45" s="38"/>
+      <c r="K45" s="38">
+        <v>2</v>
+      </c>
       <c r="L45" s="52"/>
     </row>
     <row r="46" customHeight="1" spans="1:12">
@@ -4260,7 +4229,9 @@
       <c r="J46" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="K46" s="38"/>
+      <c r="K46" s="38">
+        <v>2</v>
+      </c>
       <c r="L46" s="52"/>
     </row>
     <row r="47" customHeight="1" spans="1:12">
@@ -4278,7 +4249,9 @@
       <c r="J47" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="K47" s="38"/>
+      <c r="K47" s="38">
+        <v>2</v>
+      </c>
       <c r="L47" s="52"/>
     </row>
     <row r="48" customHeight="1" spans="1:12">
@@ -4296,7 +4269,9 @@
       <c r="J48" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="K48" s="38"/>
+      <c r="K48" s="38">
+        <v>2</v>
+      </c>
       <c r="L48" s="52"/>
     </row>
     <row r="49" customHeight="1" spans="1:12">
@@ -4314,7 +4289,9 @@
       <c r="J49" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="K49" s="38"/>
+      <c r="K49" s="38">
+        <v>2</v>
+      </c>
       <c r="L49" s="52"/>
     </row>
     <row r="50" customHeight="1" spans="1:12">
@@ -4332,7 +4309,9 @@
       <c r="J50" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="K50" s="38"/>
+      <c r="K50" s="38">
+        <v>2</v>
+      </c>
       <c r="L50" s="52"/>
     </row>
     <row r="51" customHeight="1" spans="1:12">
@@ -4412,7 +4391,9 @@
       <c r="J54" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K54" s="38"/>
+      <c r="K54" s="38">
+        <v>2</v>
+      </c>
       <c r="L54" s="52"/>
     </row>
     <row r="55" customHeight="1" spans="1:12">
@@ -4430,7 +4411,9 @@
       <c r="J55" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K55" s="38"/>
+      <c r="K55" s="38">
+        <v>2</v>
+      </c>
       <c r="L55" s="52"/>
     </row>
     <row r="56" customHeight="1" spans="1:12">
@@ -4448,7 +4431,9 @@
       <c r="J56" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K56" s="38"/>
+      <c r="K56" s="38">
+        <v>2</v>
+      </c>
       <c r="L56" s="52"/>
     </row>
     <row r="57" customHeight="1" spans="1:12">
@@ -4466,7 +4451,9 @@
       <c r="J57" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K57" s="38"/>
+      <c r="K57" s="38">
+        <v>2</v>
+      </c>
       <c r="L57" s="52"/>
     </row>
     <row r="58" customHeight="1" spans="1:12">
@@ -4484,7 +4471,9 @@
       <c r="J58" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K58" s="38"/>
+      <c r="K58" s="38">
+        <v>2</v>
+      </c>
       <c r="L58" s="52"/>
     </row>
     <row r="59" customHeight="1" spans="1:12">
@@ -4502,7 +4491,9 @@
       <c r="J59" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K59" s="38"/>
+      <c r="K59" s="38">
+        <v>2</v>
+      </c>
       <c r="L59" s="52"/>
     </row>
     <row r="60" customHeight="1" spans="1:12">
@@ -4520,7 +4511,9 @@
       <c r="J60" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K60" s="38"/>
+      <c r="K60" s="38">
+        <v>2</v>
+      </c>
       <c r="L60" s="52"/>
     </row>
     <row r="61" customHeight="1" spans="1:12">
@@ -4538,7 +4531,9 @@
       <c r="J61" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="K61" s="38"/>
+      <c r="K61" s="38">
+        <v>2</v>
+      </c>
       <c r="L61" s="52"/>
     </row>
     <row r="62" customHeight="1" spans="1:12">
@@ -4556,7 +4551,9 @@
       <c r="J62" s="38">
         <v>6</v>
       </c>
-      <c r="K62" s="38"/>
+      <c r="K62" s="38">
+        <v>2</v>
+      </c>
       <c r="L62" s="52"/>
     </row>
     <row r="63" customHeight="1" spans="1:12">
@@ -4574,7 +4571,9 @@
       <c r="J63" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K63" s="38"/>
+      <c r="K63" s="38">
+        <v>2</v>
+      </c>
       <c r="L63" s="52"/>
     </row>
     <row r="64" customHeight="1" spans="1:12">
@@ -4592,7 +4591,9 @@
       <c r="J64" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K64" s="1"/>
+      <c r="K64" s="38">
+        <v>2</v>
+      </c>
       <c r="L64" s="52"/>
     </row>
     <row r="65" customHeight="1" spans="1:12">
@@ -4610,7 +4611,9 @@
       <c r="J65" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K65" s="1"/>
+      <c r="K65" s="38">
+        <v>2</v>
+      </c>
       <c r="L65" s="52"/>
     </row>
     <row r="66" customHeight="1" spans="1:12">
@@ -4628,7 +4631,9 @@
       <c r="J66" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K66" s="1"/>
+      <c r="K66" s="38">
+        <v>2</v>
+      </c>
       <c r="L66" s="52"/>
     </row>
     <row r="67" customHeight="1" spans="1:12">
@@ -4646,7 +4651,9 @@
       <c r="J67" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K67" s="1"/>
+      <c r="K67" s="38">
+        <v>2</v>
+      </c>
       <c r="L67" s="52"/>
     </row>
     <row r="68" customHeight="1" spans="1:12">
@@ -4664,7 +4671,9 @@
       <c r="J68" s="1">
         <v>6</v>
       </c>
-      <c r="K68" s="1"/>
+      <c r="K68" s="38">
+        <v>2</v>
+      </c>
       <c r="L68" s="52"/>
     </row>
     <row r="69" customHeight="1" spans="1:12">
@@ -4682,7 +4691,9 @@
       <c r="J69" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K69" s="1"/>
+      <c r="K69" s="38">
+        <v>2</v>
+      </c>
       <c r="L69" s="52"/>
     </row>
     <row r="70" customHeight="1" spans="1:12">
@@ -4700,7 +4711,9 @@
       <c r="J70" s="38">
         <v>6</v>
       </c>
-      <c r="K70" s="38"/>
+      <c r="K70" s="38">
+        <v>2</v>
+      </c>
       <c r="L70" s="52"/>
     </row>
     <row r="71" customHeight="1" spans="1:12">
@@ -4718,7 +4731,9 @@
       <c r="J71" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="K71" s="38"/>
+      <c r="K71" s="38">
+        <v>2</v>
+      </c>
       <c r="L71" s="52"/>
     </row>
     <row r="72" customHeight="1" spans="1:12">
@@ -4736,7 +4751,9 @@
       <c r="J72" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K72" s="38"/>
+      <c r="K72" s="38">
+        <v>2</v>
+      </c>
       <c r="L72" s="52"/>
     </row>
     <row r="73" customHeight="1" spans="1:12">
@@ -4754,7 +4771,9 @@
       <c r="J73" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="K73" s="38"/>
+      <c r="K73" s="38">
+        <v>2</v>
+      </c>
       <c r="L73" s="52"/>
     </row>
     <row r="74" customHeight="1" spans="1:12">
@@ -4772,7 +4791,9 @@
       <c r="J74" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K74" s="38"/>
+      <c r="K74" s="38">
+        <v>2</v>
+      </c>
       <c r="L74" s="52"/>
     </row>
     <row r="75" customHeight="1" spans="1:12">
@@ -4790,7 +4811,9 @@
       <c r="J75" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K75" s="1"/>
+      <c r="K75" s="38">
+        <v>2</v>
+      </c>
       <c r="L75" s="52"/>
     </row>
     <row r="76" customHeight="1" spans="1:12">
@@ -4808,7 +4831,9 @@
       <c r="J76" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K76" s="1"/>
+      <c r="K76" s="38">
+        <v>2</v>
+      </c>
       <c r="L76" s="52"/>
     </row>
     <row r="77" customHeight="1" spans="1:12">
@@ -4826,7 +4851,9 @@
       <c r="J77" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K77" s="1"/>
+      <c r="K77" s="38">
+        <v>2</v>
+      </c>
       <c r="L77" s="52"/>
     </row>
     <row r="78" customHeight="1" spans="1:12">
@@ -4844,7 +4871,9 @@
       <c r="J78" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K78" s="1"/>
+      <c r="K78" s="38">
+        <v>2</v>
+      </c>
       <c r="L78" s="52"/>
     </row>
     <row r="79" customHeight="1" spans="1:12">
@@ -4862,7 +4891,9 @@
       <c r="J79" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K79" s="38"/>
+      <c r="K79" s="38">
+        <v>2</v>
+      </c>
       <c r="L79" s="52"/>
     </row>
     <row r="80" customHeight="1" spans="1:12">
@@ -4880,7 +4911,9 @@
       <c r="J80" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K80" s="38"/>
+      <c r="K80" s="38">
+        <v>2</v>
+      </c>
       <c r="L80" s="52"/>
     </row>
     <row r="81" customHeight="1" spans="1:12">
@@ -4898,7 +4931,9 @@
       <c r="J81" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K81" s="38"/>
+      <c r="K81" s="38">
+        <v>2</v>
+      </c>
       <c r="L81" s="52"/>
     </row>
     <row r="82" customHeight="1" spans="1:12">
@@ -4916,7 +4951,9 @@
       <c r="J82" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K82" s="1"/>
+      <c r="K82" s="38">
+        <v>2</v>
+      </c>
       <c r="L82" s="52"/>
     </row>
     <row r="83" customHeight="1" spans="1:12">
@@ -4934,7 +4971,9 @@
       <c r="J83" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K83" s="1"/>
+      <c r="K83" s="38">
+        <v>2</v>
+      </c>
       <c r="L83" s="52"/>
     </row>
     <row r="84" customHeight="1" spans="1:12">
@@ -4952,7 +4991,9 @@
       <c r="J84" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K84" s="1"/>
+      <c r="K84" s="38">
+        <v>2</v>
+      </c>
       <c r="L84" s="52"/>
     </row>
     <row r="85" customHeight="1" spans="1:12">
@@ -4970,7 +5011,9 @@
       <c r="J85" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K85" s="38"/>
+      <c r="K85" s="38">
+        <v>2</v>
+      </c>
       <c r="L85" s="52"/>
     </row>
     <row r="86" customHeight="1" spans="1:12">
@@ -4988,7 +5031,9 @@
       <c r="J86" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K86" s="38"/>
+      <c r="K86" s="38">
+        <v>2</v>
+      </c>
       <c r="L86" s="52"/>
     </row>
     <row r="87" customHeight="1" spans="1:12">
@@ -5006,7 +5051,9 @@
       <c r="J87" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K87" s="38"/>
+      <c r="K87" s="38">
+        <v>2</v>
+      </c>
       <c r="L87" s="52"/>
     </row>
     <row r="88" customHeight="1" spans="1:12">
@@ -5024,7 +5071,9 @@
       <c r="J88" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K88" s="38"/>
+      <c r="K88" s="38">
+        <v>2</v>
+      </c>
       <c r="L88" s="52"/>
     </row>
     <row r="89" customHeight="1" spans="1:12">
@@ -5064,7 +5113,9 @@
       <c r="J90" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K90" s="38"/>
+      <c r="K90" s="38">
+        <v>2</v>
+      </c>
       <c r="L90" s="52"/>
     </row>
     <row r="91" customHeight="1" spans="1:12">
@@ -5082,7 +5133,9 @@
       <c r="J91" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K91" s="38"/>
+      <c r="K91" s="38">
+        <v>2</v>
+      </c>
       <c r="L91" s="52"/>
     </row>
     <row r="92" customHeight="1" spans="1:12">
@@ -5100,7 +5153,9 @@
       <c r="J92" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="K92" s="38"/>
+      <c r="K92" s="38">
+        <v>2</v>
+      </c>
       <c r="L92" s="52"/>
     </row>
     <row r="93" customHeight="1" spans="1:12">
@@ -5118,7 +5173,9 @@
       <c r="J93" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="K93" s="38"/>
+      <c r="K93" s="38">
+        <v>2</v>
+      </c>
       <c r="L93" s="52"/>
     </row>
     <row r="94" customHeight="1" spans="1:12">
@@ -5136,7 +5193,9 @@
       <c r="J94" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="K94" s="38"/>
+      <c r="K94" s="38">
+        <v>2</v>
+      </c>
       <c r="L94" s="52"/>
     </row>
     <row r="95" customHeight="1" spans="1:12">
@@ -5154,7 +5213,9 @@
       <c r="J95" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="K95" s="38"/>
+      <c r="K95" s="38">
+        <v>2</v>
+      </c>
       <c r="L95" s="52"/>
     </row>
     <row r="96" customHeight="1" spans="1:12">
@@ -5172,7 +5233,9 @@
       <c r="J96" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="K96" s="38"/>
+      <c r="K96" s="38">
+        <v>2</v>
+      </c>
       <c r="L96" s="52"/>
     </row>
     <row r="97" customHeight="1" spans="1:12">
@@ -5252,7 +5315,9 @@
       <c r="J100" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="K100" s="38"/>
+      <c r="K100" s="38">
+        <v>2</v>
+      </c>
       <c r="L100" s="52"/>
     </row>
     <row r="101" customHeight="1" spans="1:12">
@@ -5270,7 +5335,9 @@
       <c r="J101" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="K101" s="38"/>
+      <c r="K101" s="38">
+        <v>2</v>
+      </c>
       <c r="L101" s="52"/>
     </row>
     <row r="102" customHeight="1" spans="1:12">
@@ -5288,7 +5355,9 @@
       <c r="J102" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="K102" s="38"/>
+      <c r="K102" s="38">
+        <v>2</v>
+      </c>
       <c r="L102" s="52"/>
     </row>
     <row r="103" customHeight="1" spans="1:12">
@@ -5306,7 +5375,9 @@
       <c r="J103" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K103" s="1"/>
+      <c r="K103" s="38">
+        <v>2</v>
+      </c>
       <c r="L103" s="52"/>
     </row>
     <row r="104" customHeight="1" spans="1:12">
@@ -5324,7 +5395,9 @@
       <c r="J104" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K104" s="1"/>
+      <c r="K104" s="38">
+        <v>2</v>
+      </c>
       <c r="L104" s="52"/>
     </row>
     <row r="105" customHeight="1" spans="1:12">
@@ -5342,7 +5415,9 @@
       <c r="J105" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K105" s="1"/>
+      <c r="K105" s="38">
+        <v>2</v>
+      </c>
       <c r="L105" s="52"/>
     </row>
     <row r="106" customHeight="1" spans="1:12">
@@ -5360,7 +5435,9 @@
       <c r="J106" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K106" s="1"/>
+      <c r="K106" s="38">
+        <v>2</v>
+      </c>
       <c r="L106" s="52"/>
     </row>
     <row r="107" customHeight="1" spans="1:12">
@@ -5378,7 +5455,9 @@
       <c r="J107" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K107" s="1"/>
+      <c r="K107" s="38">
+        <v>2</v>
+      </c>
       <c r="L107" s="52"/>
     </row>
     <row r="108" customHeight="1" spans="1:12">
@@ -5396,7 +5475,9 @@
       <c r="J108" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="K108" s="1"/>
+      <c r="K108" s="38">
+        <v>2</v>
+      </c>
       <c r="L108" s="52"/>
     </row>
     <row r="109" customHeight="1" spans="1:12">
@@ -5414,7 +5495,9 @@
       <c r="J109" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K109" s="38"/>
+      <c r="K109" s="38">
+        <v>2</v>
+      </c>
       <c r="L109" s="52"/>
     </row>
     <row r="110" customHeight="1" spans="1:12">
@@ -5432,7 +5515,9 @@
       <c r="J110" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K110" s="38"/>
+      <c r="K110" s="38">
+        <v>2</v>
+      </c>
       <c r="L110" s="52"/>
     </row>
     <row r="111" customHeight="1" spans="1:12">
@@ -5450,7 +5535,9 @@
       <c r="J111" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="K111" s="38"/>
+      <c r="K111" s="38">
+        <v>2</v>
+      </c>
       <c r="L111" s="52"/>
     </row>
     <row r="112" customHeight="1" spans="1:12">
@@ -5468,7 +5555,9 @@
       <c r="J112" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="K112" s="38"/>
+      <c r="K112" s="38">
+        <v>2</v>
+      </c>
       <c r="L112" s="52"/>
     </row>
     <row r="113" customHeight="1" spans="1:12">
@@ -5486,7 +5575,9 @@
       <c r="J113" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="K113" s="38"/>
+      <c r="K113" s="38">
+        <v>2</v>
+      </c>
       <c r="L113" s="52"/>
     </row>
     <row r="114" customHeight="1" spans="1:12">
@@ -5526,7 +5617,9 @@
       <c r="J115" s="38">
         <v>3</v>
       </c>
-      <c r="K115" s="38"/>
+      <c r="K115" s="38">
+        <v>2</v>
+      </c>
       <c r="L115" s="52"/>
     </row>
     <row r="116" customHeight="1" spans="1:12">
@@ -5544,7 +5637,9 @@
       <c r="J116" s="38">
         <v>3</v>
       </c>
-      <c r="K116" s="38"/>
+      <c r="K116" s="38">
+        <v>2</v>
+      </c>
       <c r="L116" s="52"/>
     </row>
     <row r="117" customHeight="1" spans="1:12">
@@ -5562,7 +5657,9 @@
       <c r="J117" s="38">
         <v>6</v>
       </c>
-      <c r="K117" s="38"/>
+      <c r="K117" s="38">
+        <v>2</v>
+      </c>
       <c r="L117" s="52"/>
     </row>
     <row r="118" customHeight="1" spans="1:12">
@@ -5580,7 +5677,9 @@
       <c r="J118" s="38">
         <v>6</v>
       </c>
-      <c r="K118" s="38"/>
+      <c r="K118" s="38">
+        <v>2</v>
+      </c>
       <c r="L118" s="52"/>
     </row>
     <row r="119" customHeight="1" spans="1:12">
@@ -5598,7 +5697,9 @@
       <c r="J119" s="38">
         <v>6</v>
       </c>
-      <c r="K119" s="38"/>
+      <c r="K119" s="38">
+        <v>2</v>
+      </c>
       <c r="L119" s="52"/>
     </row>
     <row r="120" customHeight="1" spans="1:12">
@@ -5616,8 +5717,10 @@
       <c r="J120" s="34">
         <v>6</v>
       </c>
-      <c r="K120" s="34"/>
-      <c r="L120" s="62"/>
+      <c r="K120" s="38">
+        <v>2</v>
+      </c>
+      <c r="L120" s="50"/>
     </row>
     <row r="121" customHeight="1" spans="1:12">
       <c r="A121" s="35" t="s">
@@ -5719,29 +5822,29 @@
       <c r="K124" s="34">
         <v>0.5</v>
       </c>
-      <c r="L124" s="62"/>
+      <c r="L124" s="50"/>
     </row>
     <row r="125" ht="322" customHeight="1" spans="1:12">
-      <c r="A125" s="58" t="s">
+      <c r="A125" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="B125" s="59" t="s">
+      <c r="B125" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="C125" s="60"/>
-      <c r="D125" s="61"/>
-      <c r="E125" s="59" t="s">
+      <c r="C125" s="59"/>
+      <c r="D125" s="60"/>
+      <c r="E125" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="F125" s="60"/>
-      <c r="G125" s="61"/>
-      <c r="H125" s="59" t="s">
+      <c r="F125" s="59"/>
+      <c r="G125" s="60"/>
+      <c r="H125" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="I125" s="60"/>
-      <c r="J125" s="60"/>
-      <c r="K125" s="61"/>
-      <c r="L125" s="63" t="s">
+      <c r="I125" s="59"/>
+      <c r="J125" s="59"/>
+      <c r="K125" s="60"/>
+      <c r="L125" s="61" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5804,7 +5907,7 @@
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:A35"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -5885,7 +5988,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="4" t="s">
-        <v>236</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
@@ -5995,7 +6098,7 @@
     </row>
     <row r="7" ht="17" spans="1:11">
       <c r="A7" s="8" t="s">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>16</v>
@@ -6028,7 +6131,7 @@
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10" t="s">
-        <v>237</v>
+        <v>43</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="1">
@@ -6735,7 +6838,7 @@
       <c r="A37" s="5"/>
       <c r="B37" s="13"/>
       <c r="C37" s="12" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
@@ -7391,7 +7494,7 @@
       <c r="A61" s="5"/>
       <c r="B61" s="15"/>
       <c r="C61" s="1" t="s">
-        <v>239</v>
+        <v>115</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1">
@@ -7501,7 +7604,7 @@
       <c r="A65" s="5"/>
       <c r="B65" s="16"/>
       <c r="C65" s="1" t="s">
-        <v>240</v>
+        <v>121</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1">
@@ -9307,7 +9410,7 @@
       <c r="A149" s="5"/>
       <c r="B149" s="15"/>
       <c r="C149" s="1" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1">
@@ -9471,7 +9574,7 @@
     </row>
     <row r="155" ht="26" spans="1:11">
       <c r="A155" s="18" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B155" s="18"/>
       <c r="C155" s="18"/>
@@ -9504,7 +9607,7 @@
     </row>
     <row r="156" ht="26" spans="1:11">
       <c r="A156" s="20" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="20"/>
